--- a/artfynd/A 11067-2023.xlsx
+++ b/artfynd/A 11067-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY8"/>
+  <dimension ref="A1:AY9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1462,6 +1462,109 @@
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>112342543</v>
+      </c>
+      <c r="B9" t="n">
+        <v>94034</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>2869</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Bollvitmossa</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Sphagnum wulfianum</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Girg.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Lerbergsmyran, Dlr</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>497914</v>
+      </c>
+      <c r="R9" t="n">
+        <v>6722405</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Leksand</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Leksand</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>John-Olof Halvarsson</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>John-Olof Halvarsson</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 11067-2023.xlsx
+++ b/artfynd/A 11067-2023.xlsx
@@ -1467,7 +1467,7 @@
         <v>112342543</v>
       </c>
       <c r="B9" t="n">
-        <v>94034</v>
+        <v>94048</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
